--- a/mavenownproject/src/test/java/com/mavenownproject/utilities/BasicExcelReading.xlsx
+++ b/mavenownproject/src/test/java/com/mavenownproject/utilities/BasicExcelReading.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
